--- a/srikant_assignment_4.xlsx
+++ b/srikant_assignment_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="217">
   <si>
     <t>Place</t>
   </si>
@@ -377,6 +377,294 @@
   </si>
   <si>
     <t>25.75937</t>
+  </si>
+  <si>
+    <t>Chirah</t>
+  </si>
+  <si>
+    <t>Dabhara</t>
+  </si>
+  <si>
+    <t>Dalmalpur</t>
+  </si>
+  <si>
+    <t>87.51984</t>
+  </si>
+  <si>
+    <t>Dehati</t>
+  </si>
+  <si>
+    <t>26.20679</t>
+  </si>
+  <si>
+    <t>87.43895</t>
+  </si>
+  <si>
+    <t>Deorea Sonapur</t>
+  </si>
+  <si>
+    <t>26.12815</t>
+  </si>
+  <si>
+    <t>87.51988</t>
+  </si>
+  <si>
+    <t>Dharhmagtanj</t>
+  </si>
+  <si>
+    <t>26.20683</t>
+  </si>
+  <si>
+    <t>Dholbazza</t>
+  </si>
+  <si>
+    <t>Dubha</t>
+  </si>
+  <si>
+    <t>87.33701</t>
+  </si>
+  <si>
+    <t>Dumuria Bisstaria</t>
+  </si>
+  <si>
+    <t>25.70965</t>
+  </si>
+  <si>
+    <t>87.06936</t>
+  </si>
+  <si>
+    <t>Fatehpur</t>
+  </si>
+  <si>
+    <t>26.44916</t>
+  </si>
+  <si>
+    <t>87.22772</t>
+  </si>
+  <si>
+    <t>Forbesganj</t>
+  </si>
+  <si>
+    <t>26.29497</t>
+  </si>
+  <si>
+    <t>Gairki</t>
+  </si>
+  <si>
+    <t>Gaiyari</t>
+  </si>
+  <si>
+    <t>Gamharia</t>
+  </si>
+  <si>
+    <t>85.52869</t>
+  </si>
+  <si>
+    <t>Ghurna</t>
+  </si>
+  <si>
+    <t>24.85159</t>
+  </si>
+  <si>
+    <t>Gidwas</t>
+  </si>
+  <si>
+    <t>Gokhlapur</t>
+  </si>
+  <si>
+    <t>Gunwanti</t>
+  </si>
+  <si>
+    <t>87.49476</t>
+  </si>
+  <si>
+    <t>Haldarhat</t>
+  </si>
+  <si>
+    <t>25.75936</t>
+  </si>
+  <si>
+    <t>87.22774</t>
+  </si>
+  <si>
+    <t>Haldia Bokra</t>
+  </si>
+  <si>
+    <t>26.29499</t>
+  </si>
+  <si>
+    <t>Hansa</t>
+  </si>
+  <si>
+    <t>Haripur Dak</t>
+  </si>
+  <si>
+    <t>87.33704</t>
+  </si>
+  <si>
+    <t>Jagta</t>
+  </si>
+  <si>
+    <t>25.70968</t>
+  </si>
+  <si>
+    <t>Jahanpur</t>
+  </si>
+  <si>
+    <t>87.49474</t>
+  </si>
+  <si>
+    <t>Jamua</t>
+  </si>
+  <si>
+    <t>25.75934</t>
+  </si>
+  <si>
+    <t>87.33706</t>
+  </si>
+  <si>
+    <t>Jaynagar</t>
+  </si>
+  <si>
+    <t>25.7097</t>
+  </si>
+  <si>
+    <t>854328</t>
+  </si>
+  <si>
+    <t>87.21365</t>
+  </si>
+  <si>
+    <t>Jogbani</t>
+  </si>
+  <si>
+    <t>26.38825</t>
+  </si>
+  <si>
+    <t>87.64408</t>
+  </si>
+  <si>
+    <t>Jokihat</t>
+  </si>
+  <si>
+    <t>26.17535</t>
+  </si>
+  <si>
+    <t>K. Baijnathpur</t>
+  </si>
+  <si>
+    <t>Kakan</t>
+  </si>
+  <si>
+    <t>Kamaldaha</t>
+  </si>
+  <si>
+    <t>Kankhudia</t>
+  </si>
+  <si>
+    <t>Kannaili</t>
+  </si>
+  <si>
+    <t>Karankia</t>
+  </si>
+  <si>
+    <t>Kessara</t>
+  </si>
+  <si>
+    <t>Khagra</t>
+  </si>
+  <si>
+    <t>Khairkhan</t>
+  </si>
+  <si>
+    <t>Khawashpur</t>
+  </si>
+  <si>
+    <t>Koskapur</t>
+  </si>
+  <si>
+    <t>87.41802</t>
+  </si>
+  <si>
+    <t>Kuari</t>
+  </si>
+  <si>
+    <t>26.38129</t>
+  </si>
+  <si>
+    <t>Kujri</t>
+  </si>
+  <si>
+    <t>87.49478</t>
+  </si>
+  <si>
+    <t>Kursakanta</t>
+  </si>
+  <si>
+    <t>25.75938</t>
+  </si>
+  <si>
+    <t>Kurshail</t>
+  </si>
+  <si>
+    <t>87.33707</t>
+  </si>
+  <si>
+    <t>Kushkapur</t>
+  </si>
+  <si>
+    <t>25.70971</t>
+  </si>
+  <si>
+    <t>Kushmaha</t>
+  </si>
+  <si>
+    <t>Kushmaul</t>
+  </si>
+  <si>
+    <t>Madanpur</t>
+  </si>
+  <si>
+    <t>Madhura</t>
+  </si>
+  <si>
+    <t>87.21368</t>
+  </si>
+  <si>
+    <t>Maheshwari</t>
+  </si>
+  <si>
+    <t>26.38828</t>
+  </si>
+  <si>
+    <t>Mahsail</t>
+  </si>
+  <si>
+    <t>Mahthawabazar</t>
+  </si>
+  <si>
+    <t>Mahullahpatti</t>
+  </si>
+  <si>
+    <t>Mainahat</t>
+  </si>
+  <si>
+    <t>Majhua</t>
+  </si>
+  <si>
+    <t>Majhwa</t>
+  </si>
+  <si>
+    <t>26.29495</t>
+  </si>
+  <si>
+    <t>85.52871</t>
+  </si>
+  <si>
+    <t>Manikpur</t>
+  </si>
+  <si>
+    <t>24.85161</t>
   </si>
 </sst>
 </file>
@@ -708,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,6 +1876,1294 @@
         <v>118</v>
       </c>
     </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>177</v>
+      </c>
+      <c r="G66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>191</v>
+      </c>
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
